--- a/Тест кейсы Коршунов М.xlsx
+++ b/Тест кейсы Коршунов М.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2BBB361D-98E3-4A41-8583-710D101773B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F196DF3-7E18-594F-B51F-6ED00EAB53ED}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>Название:</t>
   </si>
@@ -350,12 +350,21 @@
       <t>Использовать функцию "Отложить", убрать товар из списка "Отложенные"</t>
     </r>
   </si>
+  <si>
+    <t>Название тест-кейса коротковато, по нему ничего нельзя понять</t>
+  </si>
+  <si>
+    <t>лучше уточнить что для другого товара из этой же категории</t>
+  </si>
+  <si>
+    <t>аналогично, название должно отображать краткую инфу по тесту</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +387,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -545,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -556,6 +572,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -565,6 +590,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -574,25 +614,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -601,24 +638,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -676,12 +695,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1164,1251 +1183,1285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K100" sqref="K100"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2"/>
-    <col min="6" max="6" width="11.21875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" style="2"/>
+    <col min="4" max="4" width="9.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="2"/>
+    <col min="6" max="6" width="11.1640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.1640625" style="2"/>
+    <col min="9" max="9" width="48.5" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="25" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="36" t="s">
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="36" t="s">
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="38" t="s">
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="39"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="40" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="25" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="34" t="s">
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="35"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="36" t="s">
+      <c r="H25" s="36"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="37"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="36" t="s">
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="37"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="38" t="s">
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="39"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="H28" s="40"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="10" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" ht="61.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="10" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" ht="49.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="10" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="10" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="25" t="s">
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="34" t="s">
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="35"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="36" t="s">
+      <c r="H47" s="36"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="37"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="36" t="s">
+      <c r="H48" s="38"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="37"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="38" t="s">
+      <c r="H49" s="38"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="32"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="39"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
+      <c r="H50" s="40"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="24"/>
-    </row>
-    <row r="52" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="1:8" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-    </row>
-    <row r="55" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-    </row>
-    <row r="56" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-    </row>
-    <row r="58" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15" t="s">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="1:8" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41" t="s">
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="1:8" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="41" t="s">
+      <c r="B59" s="43"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="E59" s="43"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="41" t="s">
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:8" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="41" t="s">
+      <c r="B61" s="43"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+      <c r="E61" s="43"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:8" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15" t="s">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41" t="s">
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="1:8" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="41" t="s">
+      <c r="B63" s="43"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="42"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
+      <c r="E63" s="43"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="1:8" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15" t="s">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="41" t="s">
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="1:8" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="42"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="15" t="s">
+      <c r="B65" s="43"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="9"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="25" t="s">
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="25" t="s">
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="26"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="34" t="s">
+      <c r="E73" s="27"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H73" s="35"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="28"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="36" t="s">
+      <c r="H73" s="36"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="29"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H74" s="37"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="28"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="36" t="s">
+      <c r="H74" s="38"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="29"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H75" s="37"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="31"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="38" t="s">
+      <c r="H75" s="38"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="32"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H76" s="39"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="19" t="s">
+      <c r="H76" s="40"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="24"/>
-    </row>
-    <row r="78" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17" t="s">
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" spans="1:8" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-    </row>
-    <row r="79" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="17" t="s">
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-    </row>
-    <row r="81" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15" t="s">
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-    </row>
-    <row r="82" spans="1:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="1:8" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15" t="s">
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-    </row>
-    <row r="83" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="40" t="s">
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-    </row>
-    <row r="84" spans="1:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="41" t="s">
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="1:8" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B84" s="42"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="10" t="s">
+      <c r="B84" s="43"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E84" s="11"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
+      <c r="E84" s="13"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="9"/>
+    </row>
+    <row r="85" spans="1:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="10" t="s">
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
+      <c r="E85" s="13"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="9"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="15"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="15"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="9"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="6"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="44"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="9"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="9"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="9"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="212">
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="A25:C28"/>
-    <mergeCell ref="D25:F28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="D80:H80"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="A73:C76"/>
+    <mergeCell ref="D73:F76"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D3:F6"/>
+    <mergeCell ref="A3:C6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="B2:H2"/>
@@ -2433,21 +2486,70 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D3:F6"/>
-    <mergeCell ref="A3:C6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="A25:C28"/>
+    <mergeCell ref="D25:F28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:H62"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="D51:H51"/>
     <mergeCell ref="A52:C52"/>
@@ -2463,89 +2565,17 @@
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="A73:C76"/>
-    <mergeCell ref="D73:F76"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="G91:H91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Тест кейсы Коршунов М.xlsx
+++ b/Тест кейсы Коршунов М.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6B783777-EEA2-499D-898C-91CA06FAD6F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7578D649-F4C2-4F74-8462-8EF80F7481FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>Название:</t>
   </si>
@@ -345,9 +345,6 @@
     </r>
   </si>
   <si>
-    <t>Название тест-кейса коротковато, по нему ничего нельзя понять</t>
-  </si>
-  <si>
     <t>лучше уточнить что для другого товара из этой же категории</t>
   </si>
   <si>
@@ -370,6 +367,15 @@
   </si>
   <si>
     <t>Яндекс Маркет, проверка фун-ии "Отложить" товар</t>
+  </si>
+  <si>
+    <t>двух разных товаров? Совсем разных? Из разных категорий? Или все таки из одной категории?</t>
+  </si>
+  <si>
+    <t>И яндекс-маркет вначале можно убрать, оно и понятно что находясь в команде я-маркета ты для него и пишешь тест-кейсы.</t>
+  </si>
+  <si>
+    <t>В остальном - хорошо.</t>
   </si>
 </sst>
 </file>
@@ -886,8 +892,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>754380</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>261293</xdr:rowOff>
     </xdr:to>
@@ -1196,29 +1202,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:C76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2"/>
-    <col min="6" max="6" width="11.109375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="2"/>
-    <col min="9" max="9" width="48.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="11.140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="48.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
@@ -1227,13 +1233,13 @@
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
       <c r="I1" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1246,8 +1252,11 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
@@ -1262,8 +1271,11 @@
         <v>2</v>
       </c>
       <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
       <c r="C4" s="37"/>
@@ -1275,7 +1287,7 @@
       </c>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="36"/>
       <c r="C5" s="37"/>
@@ -1287,7 +1299,7 @@
       </c>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
@@ -1299,7 +1311,7 @@
       </c>
       <c r="H6" s="44"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>3</v>
       </c>
@@ -1311,7 +1323,7 @@
       <c r="G7" s="26"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -1323,7 +1335,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -1335,7 +1347,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>4</v>
       </c>
@@ -1347,7 +1359,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -1361,7 +1373,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
@@ -1375,7 +1387,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
@@ -1389,7 +1401,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:10" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1403,9 +1415,9 @@
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -1417,13 +1429,13 @@
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
       <c r="I15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1437,7 +1449,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1451,7 +1463,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>5</v>
       </c>
@@ -1463,7 +1475,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="29"/>
       <c r="C19" s="12"/>
@@ -1473,7 +1485,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="29"/>
       <c r="C20" s="12"/>
@@ -1483,7 +1495,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="29"/>
       <c r="C21" s="12"/>
@@ -1493,7 +1505,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1503,12 +1515,12 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1517,13 +1529,13 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1537,7 +1549,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>31</v>
       </c>
@@ -1553,7 +1565,7 @@
       </c>
       <c r="H25" s="42"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="36"/>
       <c r="C26" s="37"/>
@@ -1565,7 +1577,7 @@
       </c>
       <c r="H26" s="31"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="37"/>
@@ -1577,7 +1589,7 @@
       </c>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
@@ -1589,7 +1601,7 @@
       </c>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>3</v>
       </c>
@@ -1601,7 +1613,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="27"/>
     </row>
-    <row r="30" spans="1:10" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="45.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>30</v>
       </c>
@@ -1613,7 +1625,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -1623,7 +1635,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +1647,7 @@
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
@@ -1649,7 +1661,7 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>37</v>
       </c>
@@ -1663,7 +1675,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:10" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>34</v>
       </c>
@@ -1677,7 +1689,7 @@
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>38</v>
       </c>
@@ -1691,7 +1703,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
@@ -1705,7 +1717,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
@@ -1719,7 +1731,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
@@ -1729,7 +1741,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>5</v>
       </c>
@@ -1741,7 +1753,7 @@
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="29"/>
       <c r="C41" s="12"/>
@@ -1751,7 +1763,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="29"/>
       <c r="C42" s="12"/>
@@ -1761,7 +1773,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="29"/>
       <c r="C43" s="12"/>
@@ -1771,7 +1783,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1781,12 +1793,12 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -1795,10 +1807,10 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="J45" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -1812,7 +1824,7 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>40</v>
       </c>
@@ -1828,7 +1840,7 @@
       </c>
       <c r="H47" s="42"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
       <c r="B48" s="36"/>
       <c r="C48" s="37"/>
@@ -1840,7 +1852,7 @@
       </c>
       <c r="H48" s="31"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
       <c r="B49" s="36"/>
       <c r="C49" s="37"/>
@@ -1852,7 +1864,7 @@
       </c>
       <c r="H49" s="31"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="39"/>
       <c r="C50" s="40"/>
@@ -1864,7 +1876,7 @@
       </c>
       <c r="H50" s="44"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>3</v>
       </c>
@@ -1876,7 +1888,7 @@
       <c r="G51" s="26"/>
       <c r="H51" s="27"/>
     </row>
-    <row r="52" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>30</v>
       </c>
@@ -1888,7 +1900,7 @@
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -1898,7 +1910,7 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>4</v>
       </c>
@@ -1910,7 +1922,7 @@
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
     </row>
-    <row r="55" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>42</v>
       </c>
@@ -1924,7 +1936,7 @@
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>44</v>
       </c>
@@ -1938,7 +1950,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="29.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>43</v>
       </c>
@@ -1952,7 +1964,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>45</v>
       </c>
@@ -1966,7 +1978,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>46</v>
       </c>
@@ -1980,7 +1992,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>47</v>
       </c>
@@ -1994,7 +2006,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>54</v>
       </c>
@@ -2008,7 +2020,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>55</v>
       </c>
@@ -2022,7 +2034,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>56</v>
       </c>
@@ -2036,7 +2048,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>57</v>
       </c>
@@ -2050,7 +2062,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>58</v>
       </c>
@@ -2064,7 +2076,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="12"/>
     </row>
-    <row r="66" spans="1:10" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2088,7 @@
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="29"/>
       <c r="C67" s="12"/>
@@ -2086,7 +2098,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="29"/>
       <c r="C68" s="12"/>
@@ -2096,7 +2108,7 @@
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="29"/>
       <c r="C69" s="12"/>
@@ -2106,7 +2118,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2116,12 +2128,12 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
@@ -2130,10 +2142,10 @@
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
       <c r="J71" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -2147,7 +2159,7 @@
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>72</v>
       </c>
@@ -2163,7 +2175,7 @@
       </c>
       <c r="H73" s="42"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="35"/>
       <c r="B74" s="36"/>
       <c r="C74" s="37"/>
@@ -2175,7 +2187,7 @@
       </c>
       <c r="H74" s="31"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
       <c r="B75" s="36"/>
       <c r="C75" s="37"/>
@@ -2187,7 +2199,7 @@
       </c>
       <c r="H75" s="31"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
       <c r="B76" s="39"/>
       <c r="C76" s="40"/>
@@ -2199,7 +2211,7 @@
       </c>
       <c r="H76" s="44"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>3</v>
       </c>
@@ -2211,7 +2223,7 @@
       <c r="G77" s="26"/>
       <c r="H77" s="27"/>
     </row>
-    <row r="78" spans="1:10" ht="50.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="50.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>30</v>
       </c>
@@ -2223,7 +2235,7 @@
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>61</v>
       </c>
@@ -2235,7 +2247,7 @@
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>4</v>
       </c>
@@ -2247,7 +2259,7 @@
       <c r="G80" s="28"/>
       <c r="H80" s="28"/>
     </row>
-    <row r="81" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>62</v>
       </c>
@@ -2261,7 +2273,7 @@
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" spans="1:8" ht="53.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="53.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>64</v>
       </c>
@@ -2275,7 +2287,7 @@
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
     </row>
-    <row r="83" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>66</v>
       </c>
@@ -2289,7 +2301,7 @@
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" spans="1:8" ht="98.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="98.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>67</v>
       </c>
@@ -2303,7 +2315,7 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="1:8" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>69</v>
       </c>
@@ -2317,7 +2329,7 @@
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
@@ -2327,7 +2339,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
@@ -2337,7 +2349,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>5</v>
       </c>
@@ -2349,7 +2361,7 @@
       <c r="G88" s="28"/>
       <c r="H88" s="28"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="29"/>
       <c r="C89" s="12"/>
@@ -2359,7 +2371,7 @@
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="29"/>
       <c r="C90" s="12"/>
@@ -2369,7 +2381,7 @@
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="29"/>
       <c r="C91" s="12"/>
@@ -2379,7 +2391,7 @@
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
